--- a/testdata/test_read.xlsx
+++ b/testdata/test_read.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\pyDatabases\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\pyDatabasesUpdate\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8340" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="_sets" sheetId="1" r:id="rId1"/>
-    <sheet name="_subsets" sheetId="2" r:id="rId2"/>
-    <sheet name="_maps" sheetId="3" r:id="rId3"/>
-    <sheet name="_variables" sheetId="4" r:id="rId4"/>
-    <sheet name="_scalars" sheetId="5" r:id="rId5"/>
-    <sheet name="_variable2D" sheetId="6" r:id="rId6"/>
+    <sheet name="_set" sheetId="1" r:id="rId1"/>
+    <sheet name="_subset" sheetId="2" r:id="rId2"/>
+    <sheet name="_map" sheetId="3" r:id="rId3"/>
+    <sheet name="_var" sheetId="4" r:id="rId4"/>
+    <sheet name="_scalarVar" sheetId="5" r:id="rId5"/>
+    <sheet name="_var2D" sheetId="6" r:id="rId6"/>
+    <sheet name="extraset" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>set1</t>
   </si>
@@ -83,6 +84,15 @@
   </si>
   <si>
     <t>matrixVariable/set1/set2</t>
+  </si>
+  <si>
+    <t>set3</t>
+  </si>
+  <si>
+    <t>Elephant 1</t>
+  </si>
+  <si>
+    <t>Elephant 2</t>
   </si>
 </sst>
 </file>
@@ -403,15 +413,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -435,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -453,13 +463,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -467,7 +477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -485,15 +495,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -501,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -519,16 +529,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -539,7 +549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -560,22 +570,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -590,17 +603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -611,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -620,6 +633,36 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
